--- a/MedicalLink/Templates/0_ToolsDVKTChiPhi_Export.xlsx
+++ b/MedicalLink/Templates/0_ToolsDVKTChiPhi_Export.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>STT</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>LASTTIMEUPDATED</t>
+  </si>
+  <si>
+    <t>(bắt buộc)</t>
+  </si>
+  <si>
+    <t>(mã HT không được sửa,xóa)</t>
   </si>
 </sst>
 </file>
@@ -248,7 +254,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -288,9 +294,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -302,6 +305,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -588,12 +600,14 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="7" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" style="4" bestFit="1" customWidth="1"/>
@@ -611,6 +625,26 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>36</v>
@@ -621,7 +655,7 @@
       <c r="C3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="23" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -658,14 +692,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="10" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="B4" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="C4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -703,40 +740,40 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="22" t="s">
         <v>35</v>
       </c>
     </row>

--- a/MedicalLink/Templates/0_ToolsDVKTChiPhi_Export.xlsx
+++ b/MedicalLink/Templates/0_ToolsDVKTChiPhi_Export.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>STT</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>(mã HT không được sửa,xóa)</t>
+  </si>
+  <si>
+    <t>Nhóm báo cáo</t>
+  </si>
+  <si>
+    <t>NHOMBC_MA</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].NHOMBC_MA</t>
   </si>
 </sst>
 </file>
@@ -254,7 +263,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -313,6 +322,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -597,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -617,15 +632,16 @@
     <col min="10" max="11" width="18.28515625" style="11" customWidth="1"/>
     <col min="12" max="12" width="18.28515625" style="5" customWidth="1"/>
     <col min="13" max="15" width="18.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="32.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -645,7 +661,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -691,8 +707,11 @@
       <c r="O3" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="P3" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>36</v>
       </c>
@@ -738,8 +757,11 @@
       <c r="O4" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="P4" s="26" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="25" t="s">
         <v>24</v>
       </c>
@@ -775,6 +797,9 @@
       </c>
       <c r="O5" s="22" t="s">
         <v>35</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
